--- a/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T12:44:22+00:00</t>
+    <t>2024-03-28T13:28:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,7 +129,7 @@
     <t>https://mos.esante.gouv.fr/NOS/TRE_R04-TypeSavoirFaire/FHIR/TRE-R04-TypeSavoirFaire</t>
   </si>
   <si>
-    <t>PS</t>
+    <t>P01</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R288-TypeProfession/FHIR/TRE-R288-TypeProfession</t>

--- a/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T13:28:20+00:00</t>
+    <t>2024-03-28T16:20:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T16:20:19+00:00</t>
+    <t>2024-03-28T17:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T17:00:10+00:00</t>
+    <t>2024-03-28T17:14:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T17:14:17+00:00</t>
+    <t>2024-04-02T09:13:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T09:13:36+00:00</t>
+    <t>2024-04-02T09:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T09:29:34+00:00</t>
+    <t>2024-04-02T10:08:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension du Value Set http://hl7.org/fhir/ValueSet/usage-context-type pour fixer le type de contexte d'usage de la fiche de saisie avec le code EG ou le S pour Spécialité ordinale</t>
+    <t>Extension du Value Set http://hl7.org/fhir/ValueSet/usage-context-type pour fixer le type de contexte d'usage de la fiche de saisie avec le code EG ou le S pour Spécialité ordinale ou P01 pour le type de profession</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T10:08:21+00:00</t>
+    <t>2024-04-02T10:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T10:29:34+00:00</t>
+    <t>2024-04-02T14:42:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/sd-corrections-questionnaire/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:42:30+00:00</t>
+    <t>2024-04-02T15:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
